--- a/data/trans_camb/P07_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P07_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.1255130759130463</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7329292627563609</v>
+        <v>0.7329292627563603</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.9155562213621911</v>
@@ -664,7 +664,7 @@
         <v>-2.275660087111861</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.3551624805518655</v>
+        <v>0.3551624805518648</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.900796062302492</v>
+        <v>-1.984255122672799</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.407757004193289</v>
+        <v>-2.423455097652909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.844604420131103</v>
+        <v>-1.986465798323026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.307998530742792</v>
+        <v>-4.082229265226596</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.162245815975328</v>
+        <v>-7.220586641664327</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.059684739571083</v>
+        <v>-3.944687237537261</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.219967313282174</v>
+        <v>-2.195502410613728</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.977153870981066</v>
+        <v>-3.994859374092433</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.226344770159235</v>
+        <v>-2.17378832397449</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.378711698648782</v>
+        <v>2.628511155869744</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.042680579432136</v>
+        <v>2.114619070049951</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.270938456524169</v>
+        <v>4.92975668587304</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.982743506451795</v>
+        <v>2.415724035449893</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-2.08237490715425</v>
+        <v>-1.920876542640251</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.732080633185836</v>
+        <v>5.03760262878612</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.732400020999507</v>
+        <v>1.698485496249941</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.5559525937289781</v>
+        <v>-0.5445460743654759</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.207016014068343</v>
+        <v>3.543089668581199</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.0437338024960153</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2553820260380137</v>
+        <v>0.2553820260380135</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1367794178773591</v>
@@ -769,7 +769,7 @@
         <v>-0.4812176512850248</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.07510368340319309</v>
+        <v>0.07510368340319296</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4812826203463784</v>
+        <v>-0.4951806049790775</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5974493064586779</v>
+        <v>-0.6093778629076355</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5750293722567165</v>
+        <v>-0.5822530783908014</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5068648235333594</v>
+        <v>-0.5007622050409987</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8607606913551916</v>
+        <v>-0.8634705299477938</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5366742705114468</v>
+        <v>-0.512740179211259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4039724721216407</v>
+        <v>-0.3859893751807195</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6937375641647109</v>
+        <v>-0.6984238751012459</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4259554017927225</v>
+        <v>-0.4006745537189055</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.465675603784591</v>
+        <v>1.401334830714991</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.120789678335541</v>
+        <v>1.10033997913302</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.634287811781412</v>
+        <v>2.740054262419799</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3877848314177509</v>
+        <v>0.49970262066575</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.3552049706017626</v>
+        <v>-0.3736711162473296</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.113201530728142</v>
+        <v>0.9479646951903579</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4639521413844693</v>
+        <v>0.4524880612823015</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1362380785868393</v>
+        <v>-0.1108991919189152</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8204175761772521</v>
+        <v>0.9021210959365616</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-2.374263145740869</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-2.458444242743675</v>
+        <v>-2.458444242743674</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5977900244124426</v>
+        <v>-0.9007075025866182</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.535278670357533</v>
+        <v>-2.083798585025149</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5951638932463735</v>
+        <v>-0.7466479549007827</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.218831015156689</v>
+        <v>-5.920058720395926</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.580734108688063</v>
+        <v>-8.734200780698133</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-10.86864678782463</v>
+        <v>-10.7972044583796</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.332005014783008</v>
+        <v>-2.430011840309031</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.208117829821194</v>
+        <v>-4.549949631208097</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.5011976483242</v>
+        <v>-4.79307698080074</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.15701069442734</v>
+        <v>3.992260029085911</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.988504806270532</v>
+        <v>2.623840224495956</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.829148739522481</v>
+        <v>5.648012679419343</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.326812833980475</v>
+        <v>0.9620533767240341</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.785575719195693</v>
+        <v>-1.822186660860125</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-4.564075325737442</v>
+        <v>-4.438180728224796</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.916553859597069</v>
+        <v>2.002594725630664</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.3713924127426035</v>
+        <v>-0.4368689836507983</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.2513781510986982</v>
+        <v>-0.2539099930552661</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.3015402172989769</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3122315285498919</v>
+        <v>-0.3122315285498918</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1441495991327349</v>
+        <v>-0.1896600870274377</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4835738911819347</v>
+        <v>-0.4028900187131798</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1301645659098192</v>
+        <v>-0.1923390150754328</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4435438298745791</v>
+        <v>-0.4420810304466417</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.613987916107916</v>
+        <v>-0.61379114302517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7781389742136946</v>
+        <v>-0.7767232434644303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2593688670457292</v>
+        <v>-0.2717931798528639</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4783389744973482</v>
+        <v>-0.5087556455152357</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5227707873458649</v>
+        <v>-0.5289352230848352</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.258119512515216</v>
+        <v>1.126262917874138</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5969812288666499</v>
+        <v>0.7927315711416857</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.789988839521835</v>
+        <v>1.603237006334141</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1282545109563381</v>
+        <v>0.09359058591210491</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1557686306358918</v>
+        <v>-0.1611580531935406</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4134925890207649</v>
+        <v>-0.4215512077562916</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2774057115417607</v>
+        <v>0.2907655597263654</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.03862075933888105</v>
+        <v>-0.05868863173789447</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.01940148909679036</v>
+        <v>-0.02205096279329692</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-2.766191849448875</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.500117199543926</v>
+        <v>-2.500117199543928</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.6372186401093743</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.675454727956807</v>
+        <v>-3.83119948248205</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.674830014930379</v>
+        <v>-6.12295615716691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.556976149301191</v>
+        <v>-5.493242656906857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.404489705158538</v>
+        <v>-4.995625814298899</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.92958588424598</v>
+        <v>-10.67031936546501</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.37487188867936</v>
+        <v>-10.35117381836594</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.445839806657768</v>
+        <v>-3.437551558312859</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.538533612648717</v>
+        <v>-7.439347770934535</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.259401955630966</v>
+        <v>-7.418554957142723</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.932820555376095</v>
+        <v>2.863419869543272</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2912725721680385</v>
+        <v>0.238266043522444</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9786745933362413</v>
+        <v>0.5039520840724465</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.692209300678168</v>
+        <v>3.207014165091958</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-3.483353305655019</v>
+        <v>-3.330047428472459</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-3.532160097969502</v>
+        <v>-3.200617316570697</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.004472442735871</v>
+        <v>2.078239807865041</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.446721408311758</v>
+        <v>-2.64063063905951</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.449547057284672</v>
+        <v>-2.694788168714559</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2904183379244832</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2624835590679012</v>
+        <v>-0.2624835590679013</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.03649610952375837</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3323963900177104</v>
+        <v>-0.3308929191118664</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5228706943749354</v>
+        <v>-0.523294293064324</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5045510524904772</v>
+        <v>-0.4983742088565964</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2294091233256446</v>
+        <v>-0.2521297487223005</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5609748762137163</v>
+        <v>-0.5383506538934545</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5300250972842788</v>
+        <v>-0.5255678534904873</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2278623813608598</v>
+        <v>-0.2272669407313053</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5066727750673971</v>
+        <v>-0.4930403170826036</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4810601201866309</v>
+        <v>-0.4990953176330846</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.365458573140122</v>
+        <v>0.3446246467556919</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.03201304086757219</v>
+        <v>0.04479148049742964</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1451545397114772</v>
+        <v>0.07799572070462375</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2546898465695557</v>
+        <v>0.2081440977991937</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2235754313504907</v>
+        <v>-0.2040768061092919</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2215490576919324</v>
+        <v>-0.1987162387840457</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1627597729646784</v>
+        <v>0.1664869958207454</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.204127362426635</v>
+        <v>-0.2063583181207989</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2027981863046396</v>
+        <v>-0.2111844177401612</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>5.107603729916938</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.988427528437532</v>
+        <v>2.988427528437529</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-4.341920536763727</v>
@@ -1306,7 +1306,7 @@
         <v>-1.561144984117635</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.363307313435435</v>
+        <v>-3.363307313435432</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.779717116987878</v>
+        <v>-2.901157632771958</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.259624835859951</v>
+        <v>0.7908351891892623</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.158780494664537</v>
+        <v>-1.344248548209352</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-9.390163991862293</v>
+        <v>-9.806886880197746</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.3228326707977</v>
+        <v>-13.36319444001092</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-14.0249774932376</v>
+        <v>-14.68987645875104</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.790223386964814</v>
+        <v>-4.796839233224858</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.277189483911606</v>
+        <v>-5.076143236322358</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-6.548978715084236</v>
+        <v>-6.304516679468232</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.956415462051607</v>
+        <v>5.676482386871342</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.159326986159758</v>
+        <v>9.711377220892</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.264662391354164</v>
+        <v>6.955489168842065</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.996275918473831</v>
+        <v>1.031972642598894</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.231258024366246</v>
+        <v>-3.034927638287964</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-5.340871165201163</v>
+        <v>-5.66065222156127</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.138732316855545</v>
+        <v>2.557541259494407</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.578683092962948</v>
+        <v>1.703566291015161</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.1230665873248218</v>
+        <v>-0.15927112363105</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3924550822527644</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2296230548602975</v>
+        <v>0.2296230548602972</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1543747352457719</v>
@@ -1411,7 +1411,7 @@
         <v>-0.07598817408020306</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1637077812878487</v>
+        <v>-0.1637077812878486</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1756706554415887</v>
+        <v>-0.1824229186029907</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.008362235173536868</v>
+        <v>0.04082607796263781</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07951582956601708</v>
+        <v>-0.08357923525572757</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.309721024867369</v>
+        <v>-0.3061310660837587</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4304494119506802</v>
+        <v>-0.4340846004075483</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4537267852860656</v>
+        <v>-0.461943263838284</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2126141424649238</v>
+        <v>-0.214387356469316</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2319056528377484</v>
+        <v>-0.2275539587437666</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2887122273138124</v>
+        <v>-0.2874366898403507</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5417168806776045</v>
+        <v>0.5151865513245174</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.806321144316942</v>
+        <v>0.9043700410072881</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7104231752644994</v>
+        <v>0.6773662273233818</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.03837250031064315</v>
+        <v>0.04855530304928594</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1291422340924525</v>
+        <v>-0.1190046241659111</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2103758421513159</v>
+        <v>-0.2242112477730382</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1138975871227578</v>
+        <v>0.1336081220403418</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.08276802552421768</v>
+        <v>0.09171848157834703</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.001745224424609706</v>
+        <v>-0.01149499304758544</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-10.40391737722796</v>
+        <v>-10.05213329755547</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.80190383347515</v>
+        <v>-10.23365501149583</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.485685125740432</v>
+        <v>-8.32742611057675</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.920141223781</v>
+        <v>-9.220779161604804</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-11.35400858440566</v>
+        <v>-12.05140067483726</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-12.85710736007554</v>
+        <v>-13.07089332197964</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-8.130262020898369</v>
+        <v>-7.937500739237965</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-9.25070186072513</v>
+        <v>-9.213425620420095</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-9.058871903742244</v>
+        <v>-8.81477687354325</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.494132068069003</v>
+        <v>1.865402892165242</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.886996400969596</v>
+        <v>1.61343924751931</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.55529607170049</v>
+        <v>3.241414064502972</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.420675695905786</v>
+        <v>3.825678414997614</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.329960857684243</v>
+        <v>1.283735528435135</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.9595027248983825</v>
+        <v>-1.635411119348645</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9141381044142232</v>
+        <v>1.134641421677752</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.5567215530144631</v>
+        <v>-0.07514758480281078</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.8961237228588248</v>
+        <v>-1.088352392479672</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3291575608018677</v>
+        <v>-0.3159037575667947</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3437305113341866</v>
+        <v>-0.3166371236907209</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2310069622949568</v>
+        <v>-0.2540156617620105</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2066312616581874</v>
+        <v>-0.2064496369115422</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2681163897575893</v>
+        <v>-0.2794532615551747</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2898352175273508</v>
+        <v>-0.294860790219155</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2208350336292324</v>
+        <v>-0.2176549867801748</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2515578119879219</v>
+        <v>-0.2453198754728246</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2421942043320104</v>
+        <v>-0.2377652040972207</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.05890438824214617</v>
+        <v>0.07111236087717843</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.07195397349229492</v>
+        <v>0.0665469477163825</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1424168643689937</v>
+        <v>0.1286394652350315</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1191967905383295</v>
+        <v>0.1014414399688878</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.06491490572483349</v>
+        <v>0.02893478429345096</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.03028383990639923</v>
+        <v>-0.04757960081167161</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02724043985271754</v>
+        <v>0.03534616482762172</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.01541983143601943</v>
+        <v>-0.001322037522371981</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.02728134895328551</v>
+        <v>-0.03539702963637387</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>-10.21702477298085</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-14.44179290885431</v>
+        <v>-14.44179290885429</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-9.185419178966288</v>
+        <v>-8.221039015885271</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-15.74991779680575</v>
+        <v>-14.93421121833578</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-17.01246559608657</v>
+        <v>-16.52459597522214</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-17.43430707217312</v>
+        <v>-17.39745623154315</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-18.63589061687443</v>
+        <v>-19.20411629275679</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-23.62917165120264</v>
+        <v>-23.91250189757713</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-11.72455940517485</v>
+        <v>-11.22065368282134</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-15.79230708215958</v>
+        <v>-15.50079244460324</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-19.39341999736905</v>
+        <v>-19.79158298350863</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.130078818806503</v>
+        <v>7.875118798960074</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.2006127645234601</v>
+        <v>-0.2261035401182401</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-3.908002270952943</v>
+        <v>-3.498104637277582</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-3.077756936800485</v>
+        <v>-3.133984335783722</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-4.294062681562985</v>
+        <v>-3.99826178971279</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-11.95255411367347</v>
+        <v>-11.73342870367129</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-1.104251432318481</v>
+        <v>-0.2625842535390446</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-5.414009934997764</v>
+        <v>-4.390373392886906</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-10.04321460991446</v>
+        <v>-9.998949189865121</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.2053495700220725</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.2689828372330823</v>
+        <v>-0.2689828372330825</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.1794648239273992</v>
@@ -1839,7 +1839,7 @@
         <v>-0.2082768319852747</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2943998807948487</v>
+        <v>-0.2943998807948485</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2198221527618398</v>
+        <v>-0.2043351581327827</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3747111875736103</v>
+        <v>-0.3608623915961313</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4067207641974188</v>
+        <v>-0.391086476757444</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2810552450945338</v>
+        <v>-0.2786522149295139</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3047404435717331</v>
+        <v>-0.3159939490010917</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3823562405051247</v>
+        <v>-0.384742905034082</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2268806080971037</v>
+        <v>-0.2191037218052108</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.305309286053988</v>
+        <v>-0.3021173259373117</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3684300121639827</v>
+        <v>-0.3700888789023405</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2097236728888117</v>
+        <v>0.236963375068693</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.001159568100137683</v>
+        <v>-0.006317326437610241</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1167448459251169</v>
+        <v>-0.1017713301078289</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.05768918139252809</v>
+        <v>-0.04284005014739343</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.07876453414466107</v>
+        <v>-0.07590429234580097</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2201833510436375</v>
+        <v>-0.2167863187045989</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.02450157117558618</v>
+        <v>-0.005038384430530819</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1143711612624133</v>
+        <v>-0.09709376192583316</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.2183196364737606</v>
+        <v>-0.2150187688962758</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-6.532413605335419</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-9.275265112726295</v>
+        <v>-9.275265112726306</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.7681907458650716</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-7.581731444411711</v>
+        <v>-7.891099395969353</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-19.57548908790465</v>
+        <v>-19.23301290008805</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-19.41255398294915</v>
+        <v>-18.23584092951241</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-8.995411648041053</v>
+        <v>-9.719561155384545</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-14.04779916745119</v>
+        <v>-14.20858602146573</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-15.80847631755803</v>
+        <v>-15.67650648804287</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-6.771746433369865</v>
+        <v>-6.806410053296743</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-13.95090293604932</v>
+        <v>-13.2682418508294</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-14.94537591416105</v>
+        <v>-15.28529079289249</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.35645792306049</v>
+        <v>11.00906437377475</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.795333600136877</v>
+        <v>-0.7862781470340532</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-2.392863373939563</v>
+        <v>-2.459132056923928</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.431910729760002</v>
+        <v>4.262000212129339</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.36635030176732</v>
+        <v>1.062158087845395</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-3.04854161679178</v>
+        <v>-2.765362474123619</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.005806953282299</v>
+        <v>4.770723965210609</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-2.133988513906532</v>
+        <v>-1.693210111735152</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-5.537858855303278</v>
+        <v>-4.45088895413385</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.09370140501545655</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.1330450619727216</v>
+        <v>-0.1330450619727218</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.01200562197413957</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1307477613252185</v>
+        <v>-0.128394561561375</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3292034818560929</v>
+        <v>-0.316538300027959</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3148879253879924</v>
+        <v>-0.3081597193097939</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1232362682268501</v>
+        <v>-0.1333669927548453</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1934263914134542</v>
+        <v>-0.1944420486090248</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2117392840468288</v>
+        <v>-0.2119139649525358</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1002713811980081</v>
+        <v>-0.1014704146804589</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2075852968010918</v>
+        <v>-0.1986759649975296</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2218399151843046</v>
+        <v>-0.2267194952016454</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2279399000219994</v>
+        <v>0.2220421010038685</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.0367607094572508</v>
+        <v>-0.01714346919826461</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.05076018444813541</v>
+        <v>-0.04998820793846253</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.0841962117853978</v>
+        <v>0.06533705491901655</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.02027760445928357</v>
+        <v>0.01664445917325284</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.04517175622603457</v>
+        <v>-0.0431058947708935</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.0819324421235894</v>
+        <v>0.08009421522570603</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.03562377960147682</v>
+        <v>-0.02731939089955412</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.09091518228697212</v>
+        <v>-0.07637471059164649</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>0.05175881405700411</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1.709823680084818</v>
+        <v>1.709823680084821</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-1.94945828000937</v>
@@ -2153,7 +2153,7 @@
         <v>-4.759394366035183</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-4.319545488270346</v>
+        <v>-4.31954548827034</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.4673789251125937</v>
@@ -2162,7 +2162,7 @@
         <v>-2.366646810336712</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-1.308629538023842</v>
+        <v>-1.308629538023845</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.7166099978352141</v>
+        <v>-0.7569430966741737</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.718929588290972</v>
+        <v>-1.701230864888199</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.03072603210291849</v>
+        <v>-0.1350198463315169</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.966693163806983</v>
+        <v>-4.059595905892801</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-7.011605010673039</v>
+        <v>-7.007614960144497</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-6.441635638579809</v>
+        <v>-6.219359263563091</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.981579169836898</v>
+        <v>-1.776003149254001</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.88859790350985</v>
+        <v>-3.764027985446768</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.665229559971242</v>
+        <v>-2.716932707653914</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.869942251608871</v>
+        <v>2.947186857841736</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.857358421103161</v>
+        <v>1.750774893379327</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.595022482757685</v>
+        <v>3.447127029763113</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.4673868083883884</v>
+        <v>0.2695084010165609</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-2.605083071449403</v>
+        <v>-2.796015866045443</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-2.368337736629536</v>
+        <v>-2.39180818561983</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.9778773219415646</v>
+        <v>1.104235459713677</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.9952226023618015</v>
+        <v>-0.9175618182152161</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.04454520230127276</v>
+        <v>0.055339649673299</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.003308574649746111</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.1092969262633</v>
+        <v>0.1092969262633002</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.0680739831972471</v>
@@ -2258,7 +2258,7 @@
         <v>-0.1661953658741516</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.1508360912380473</v>
+        <v>-0.1508360912380471</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.02101347187693403</v>
@@ -2267,7 +2267,7 @@
         <v>-0.1064050249584223</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.05883630715262692</v>
+        <v>-0.05883630715262704</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.04424857666711463</v>
+        <v>-0.04500096255539451</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1030303025093982</v>
+        <v>-0.1029888445587405</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.002599777736817063</v>
+        <v>-0.008096759263338225</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1325681044840304</v>
+        <v>-0.1351579000020267</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2347904428554431</v>
+        <v>-0.2345399933232841</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2137711437271227</v>
+        <v>-0.207279850458578</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.08567614247988227</v>
+        <v>-0.07885019087610064</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.173124130945354</v>
+        <v>-0.1639364049203207</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1150684048279162</v>
+        <v>-0.1173795881579093</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1942572455564809</v>
+        <v>0.2062938820766035</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1226192205833177</v>
+        <v>0.1185684776671119</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2461334912127106</v>
+        <v>0.2283832069371265</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.01813682811163293</v>
+        <v>0.01096504875067406</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.09447715357387318</v>
+        <v>-0.1009887058541381</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.08672788235093337</v>
+        <v>-0.08826855757036842</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.04568061670740566</v>
+        <v>0.05166412540188241</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.04963646865434283</v>
+        <v>-0.04301552353365189</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.002119648776030169</v>
+        <v>0.003152075073176832</v>
       </c>
     </row>
     <row r="52">
